--- a/out/CE/falselink/Figori_algorithm_3.xlsx
+++ b/out/CE/falselink/Figori_algorithm_3.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.7974</v>
+        <v>0.81174999999999997</v>
       </c>
       <c r="B1">
-        <v>0.78185000000000004</v>
+        <v>0.7762</v>
       </c>
       <c r="C1">
-        <v>0.79069999999999996</v>
+        <v>0.78205000000000002</v>
       </c>
       <c r="D1">
-        <v>0.78315000000000001</v>
+        <v>0.78544999999999998</v>
       </c>
       <c r="E1">
-        <v>0.80900000000000005</v>
+        <v>0.77475000000000005</v>
       </c>
       <c r="F1">
-        <v>0.76549999999999996</v>
+        <v>0.77964999999999995</v>
       </c>
       <c r="G1">
-        <v>0.78420000000000001</v>
+        <v>0.79190000000000005</v>
       </c>
       <c r="H1">
-        <v>0.80764999999999998</v>
+        <v>0.80554999999999999</v>
       </c>
       <c r="I1">
-        <v>0.79410000000000003</v>
+        <v>0.77415</v>
       </c>
       <c r="J1">
-        <v>0.81569999999999998</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="K1">
-        <v>0.79564999999999997</v>
+        <v>0.79415000000000002</v>
       </c>
       <c r="L1">
-        <v>0.79295000000000004</v>
+        <v>0.79474999999999996</v>
       </c>
       <c r="M1">
-        <v>0.81405000000000005</v>
+        <v>0.77</v>
       </c>
       <c r="N1">
-        <v>0.78434999999999999</v>
+        <v>0.80510000000000004</v>
       </c>
       <c r="O1">
-        <v>0.81330000000000002</v>
+        <v>0.79244999999999999</v>
       </c>
       <c r="P1">
-        <v>0.79805000000000004</v>
+        <v>0.80079999999999996</v>
       </c>
       <c r="Q1">
-        <v>0.79354999999999998</v>
+        <v>0.77795000000000003</v>
       </c>
       <c r="R1">
-        <v>0.80089999999999995</v>
+        <v>0.78595000000000004</v>
       </c>
       <c r="S1">
-        <v>0.80559999999999998</v>
+        <v>0.78174999999999994</v>
       </c>
       <c r="T1">
-        <v>0.80254999999999999</v>
+        <v>0.78625</v>
       </c>
       <c r="U1">
-        <v>0.77534999999999998</v>
+        <v>0.80059999999999998</v>
       </c>
       <c r="V1">
-        <v>0.79664999999999997</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="W1">
-        <v>0.78920000000000001</v>
+        <v>0.79330000000000001</v>
       </c>
       <c r="X1">
-        <v>0.78464999999999996</v>
+        <v>0.77480000000000004</v>
       </c>
       <c r="Y1">
-        <v>0.79459999999999997</v>
+        <v>0.77744999999999997</v>
       </c>
       <c r="Z1">
-        <v>0.80469999999999997</v>
+        <v>0.80264999999999997</v>
       </c>
       <c r="AA1">
-        <v>0.77195000000000003</v>
+        <v>0.78295000000000003</v>
       </c>
       <c r="AB1">
-        <v>0.78410000000000002</v>
+        <v>0.80064999999999997</v>
       </c>
       <c r="AC1">
-        <v>0.79644999999999999</v>
+        <v>0.81340000000000001</v>
       </c>
       <c r="AD1">
-        <v>0.74565000000000003</v>
+        <v>0.78164999999999996</v>
       </c>
       <c r="AE1">
-        <v>0.77134999999999998</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="AF1">
-        <v>0.79900000000000004</v>
+        <v>0.80574999999999997</v>
       </c>
       <c r="AG1">
-        <v>0.79190000000000005</v>
+        <v>0.80549999999999999</v>
       </c>
       <c r="AH1">
-        <v>0.81415000000000004</v>
+        <v>0.80159999999999998</v>
       </c>
       <c r="AI1">
-        <v>0.81215000000000004</v>
+        <v>0.78954999999999997</v>
       </c>
       <c r="AJ1">
-        <v>0.79125000000000001</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="AK1">
-        <v>0.78249999999999997</v>
+        <v>0.77839999999999998</v>
       </c>
       <c r="AL1">
-        <v>0.78905000000000003</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="AM1">
-        <v>0.81720000000000004</v>
+        <v>0.81525000000000003</v>
       </c>
       <c r="AN1">
-        <v>0.78920000000000001</v>
+        <v>0.80264999999999997</v>
       </c>
       <c r="AO1">
-        <v>0.81964999999999999</v>
+        <v>0.8075</v>
       </c>
       <c r="AP1">
-        <v>0.77400000000000002</v>
+        <v>0.79684999999999995</v>
       </c>
       <c r="AQ1">
-        <v>0.81169999999999998</v>
+        <v>0.80854999999999999</v>
       </c>
       <c r="AR1">
-        <v>0.79564999999999997</v>
+        <v>0.78844999999999998</v>
       </c>
       <c r="AS1">
-        <v>0.81669999999999998</v>
+        <v>0.80725000000000002</v>
       </c>
       <c r="AT1">
-        <v>0.78935</v>
+        <v>0.78849999999999998</v>
       </c>
       <c r="AU1">
-        <v>0.80184999999999995</v>
+        <v>0.80179999999999996</v>
       </c>
       <c r="AV1">
-        <v>0.81020000000000003</v>
+        <v>0.81759999999999999</v>
       </c>
       <c r="AW1">
-        <v>0.81325000000000003</v>
+        <v>0.79625000000000001</v>
       </c>
       <c r="AX1">
-        <v>0.79105000000000003</v>
+        <v>0.80584999999999996</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.79830000000000001</v>
+        <v>0.79430000000000001</v>
       </c>
       <c r="B2">
-        <v>0.76519999999999999</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="C2">
-        <v>0.77375000000000005</v>
+        <v>0.77324999999999999</v>
       </c>
       <c r="D2">
-        <v>0.77680000000000005</v>
+        <v>0.77080000000000004</v>
       </c>
       <c r="E2">
+        <v>0.77085000000000004</v>
+      </c>
+      <c r="F2">
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="G2">
+        <v>0.7903</v>
+      </c>
+      <c r="H2">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="I2">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.77959999999999996</v>
+      </c>
+      <c r="K2">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="M2">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="N2">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="O2">
+        <v>0.79574999999999996</v>
+      </c>
+      <c r="P2">
+        <v>0.82255</v>
+      </c>
+      <c r="Q2">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="S2">
+        <v>0.78164999999999996</v>
+      </c>
+      <c r="T2">
+        <v>0.76854999999999996</v>
+      </c>
+      <c r="U2">
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="V2">
+        <v>0.79625000000000001</v>
+      </c>
+      <c r="W2">
+        <v>0.78495000000000004</v>
+      </c>
+      <c r="X2">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="Y2">
+        <v>0.76014999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>0.78280000000000005</v>
+      </c>
+      <c r="AB2">
+        <v>0.78185000000000004</v>
+      </c>
+      <c r="AC2">
+        <v>0.80205000000000004</v>
+      </c>
+      <c r="AD2">
+        <v>0.78354999999999997</v>
+      </c>
+      <c r="AE2">
+        <v>0.76585000000000003</v>
+      </c>
+      <c r="AF2">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="AH2">
+        <v>0.78610000000000002</v>
+      </c>
+      <c r="AI2">
+        <v>0.77664999999999995</v>
+      </c>
+      <c r="AJ2">
+        <v>0.77659999999999996</v>
+      </c>
+      <c r="AK2">
+        <v>0.75329999999999997</v>
+      </c>
+      <c r="AL2">
+        <v>0.77205000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="AN2">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="AO2">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>0.78564999999999996</v>
+      </c>
+      <c r="AQ2">
+        <v>0.78534999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.78325</v>
+      </c>
+      <c r="AS2">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="AT2">
+        <v>0.76844999999999997</v>
+      </c>
+      <c r="AU2">
         <v>0.7984</v>
       </c>
-      <c r="F2">
-        <v>0.76014999999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.76815</v>
-      </c>
-      <c r="H2">
-        <v>0.79625000000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.78195000000000003</v>
-      </c>
-      <c r="J2">
-        <v>0.81089999999999995</v>
-      </c>
-      <c r="K2">
-        <v>0.79344999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.78790000000000004</v>
-      </c>
-      <c r="M2">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="N2">
-        <v>0.76144999999999996</v>
-      </c>
-      <c r="O2">
-        <v>0.81805000000000005</v>
-      </c>
-      <c r="P2">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="Q2">
-        <v>0.78239999999999998</v>
-      </c>
-      <c r="R2">
-        <v>0.78534999999999999</v>
-      </c>
-      <c r="S2">
+      <c r="AV2">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="AW2">
+        <v>0.77744999999999997</v>
+      </c>
+      <c r="AX2">
         <v>0.78815000000000002</v>
-      </c>
-      <c r="T2">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="U2">
-        <v>0.78805000000000003</v>
-      </c>
-      <c r="V2">
-        <v>0.80264999999999997</v>
-      </c>
-      <c r="W2">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="X2">
-        <v>0.78010000000000002</v>
-      </c>
-      <c r="Y2">
-        <v>0.78385000000000005</v>
-      </c>
-      <c r="Z2">
-        <v>0.80589999999999995</v>
-      </c>
-      <c r="AA2">
-        <v>0.78259999999999996</v>
-      </c>
-      <c r="AB2">
-        <v>0.75744999999999996</v>
-      </c>
-      <c r="AC2">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="AD2">
-        <v>0.73375000000000001</v>
-      </c>
-      <c r="AE2">
-        <v>0.75844999999999996</v>
-      </c>
-      <c r="AF2">
-        <v>0.79254999999999998</v>
-      </c>
-      <c r="AG2">
-        <v>0.77915000000000001</v>
-      </c>
-      <c r="AH2">
-        <v>0.79959999999999998</v>
-      </c>
-      <c r="AI2">
-        <v>0.79805000000000004</v>
-      </c>
-      <c r="AJ2">
-        <v>0.77010000000000001</v>
-      </c>
-      <c r="AK2">
-        <v>0.76544999999999996</v>
-      </c>
-      <c r="AL2">
-        <v>0.77939999999999998</v>
-      </c>
-      <c r="AM2">
-        <v>0.80235000000000001</v>
-      </c>
-      <c r="AN2">
-        <v>0.78539999999999999</v>
-      </c>
-      <c r="AO2">
-        <v>0.7994</v>
-      </c>
-      <c r="AP2">
-        <v>0.78210000000000002</v>
-      </c>
-      <c r="AQ2">
-        <v>0.80135000000000001</v>
-      </c>
-      <c r="AR2">
-        <v>0.8024</v>
-      </c>
-      <c r="AS2">
-        <v>0.81105000000000005</v>
-      </c>
-      <c r="AT2">
-        <v>0.7903</v>
-      </c>
-      <c r="AU2">
-        <v>0.78910000000000002</v>
-      </c>
-      <c r="AV2">
-        <v>0.79784999999999995</v>
-      </c>
-      <c r="AW2">
-        <v>0.79844999999999999</v>
-      </c>
-      <c r="AX2">
-        <v>0.77105000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.79390000000000005</v>
+        <v>0.75834999999999997</v>
       </c>
       <c r="B3">
-        <v>0.76324999999999998</v>
+        <v>0.7581</v>
       </c>
       <c r="C3">
-        <v>0.76749999999999996</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="D3">
-        <v>0.76185000000000003</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="E3">
-        <v>0.78895000000000004</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="F3">
-        <v>0.72924999999999995</v>
+        <v>0.75219999999999998</v>
       </c>
       <c r="G3">
-        <v>0.74934999999999996</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="H3">
-        <v>0.77985000000000004</v>
+        <v>0.78244999999999998</v>
       </c>
       <c r="I3">
-        <v>0.78305000000000002</v>
+        <v>0.76334999999999997</v>
       </c>
       <c r="J3">
-        <v>0.78800000000000003</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="K3">
-        <v>0.78695000000000004</v>
+        <v>0.78364999999999996</v>
       </c>
       <c r="L3">
-        <v>0.78595000000000004</v>
+        <v>0.75949999999999995</v>
       </c>
       <c r="M3">
-        <v>0.77449999999999997</v>
+        <v>0.74924999999999997</v>
       </c>
       <c r="N3">
-        <v>0.74434999999999996</v>
+        <v>0.76585000000000003</v>
       </c>
       <c r="O3">
-        <v>0.82430000000000003</v>
+        <v>0.78134999999999999</v>
       </c>
       <c r="P3">
-        <v>0.76205000000000001</v>
+        <v>0.79705000000000004</v>
       </c>
       <c r="Q3">
-        <v>0.7641</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="R3">
-        <v>0.77454999999999996</v>
+        <v>0.78790000000000004</v>
       </c>
       <c r="S3">
-        <v>0.78505000000000003</v>
+        <v>0.75595000000000001</v>
       </c>
       <c r="T3">
-        <v>0.76949999999999996</v>
+        <v>0.76729999999999998</v>
       </c>
       <c r="U3">
-        <v>0.79054999999999997</v>
+        <v>0.79695000000000005</v>
       </c>
       <c r="V3">
-        <v>0.78334999999999999</v>
+        <v>0.77739999999999998</v>
       </c>
       <c r="W3">
-        <v>0.76964999999999995</v>
+        <v>0.78610000000000002</v>
       </c>
       <c r="X3">
-        <v>0.77729999999999999</v>
+        <v>0.76265000000000005</v>
       </c>
       <c r="Y3">
-        <v>0.75475000000000003</v>
+        <v>0.75565000000000004</v>
       </c>
       <c r="Z3">
-        <v>0.78720000000000001</v>
+        <v>0.76819999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.75705</v>
+        <v>0.76329999999999998</v>
       </c>
       <c r="AB3">
-        <v>0.754</v>
+        <v>0.78274999999999995</v>
       </c>
       <c r="AC3">
-        <v>0.77300000000000002</v>
+        <v>0.78534999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.71679999999999999</v>
+        <v>0.76434999999999997</v>
       </c>
       <c r="AE3">
-        <v>0.75890000000000002</v>
+        <v>0.75465000000000004</v>
       </c>
       <c r="AF3">
-        <v>0.76964999999999995</v>
+        <v>0.77244999999999997</v>
       </c>
       <c r="AG3">
-        <v>0.76129999999999998</v>
+        <v>0.78605000000000003</v>
       </c>
       <c r="AH3">
-        <v>0.79605000000000004</v>
+        <v>0.77825</v>
       </c>
       <c r="AI3">
-        <v>0.77480000000000004</v>
+        <v>0.7913</v>
       </c>
       <c r="AJ3">
-        <v>0.77334999999999998</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="AK3">
-        <v>0.75885000000000002</v>
+        <v>0.75565000000000004</v>
       </c>
       <c r="AL3">
-        <v>0.76744999999999997</v>
+        <v>0.77144999999999997</v>
       </c>
       <c r="AM3">
-        <v>0.80315000000000003</v>
+        <v>0.78710000000000002</v>
       </c>
       <c r="AN3">
-        <v>0.76434999999999997</v>
+        <v>0.80395000000000005</v>
       </c>
       <c r="AO3">
-        <v>0.78295000000000003</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="AP3">
-        <v>0.75539999999999996</v>
+        <v>0.77859999999999996</v>
       </c>
       <c r="AQ3">
-        <v>0.77205000000000001</v>
+        <v>0.79095000000000004</v>
       </c>
       <c r="AR3">
-        <v>0.78869999999999996</v>
+        <v>0.76685000000000003</v>
       </c>
       <c r="AS3">
-        <v>0.80269999999999997</v>
+        <v>0.78110000000000002</v>
       </c>
       <c r="AT3">
-        <v>0.76800000000000002</v>
+        <v>0.75219999999999998</v>
       </c>
       <c r="AU3">
-        <v>0.78390000000000004</v>
+        <v>0.77215</v>
       </c>
       <c r="AV3">
-        <v>0.78595000000000004</v>
+        <v>0.8054</v>
       </c>
       <c r="AW3">
-        <v>0.78749999999999998</v>
+        <v>0.74985000000000002</v>
       </c>
       <c r="AX3">
-        <v>0.75670000000000004</v>
+        <v>0.77700000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.77239999999999998</v>
+        <v>0.71389999999999998</v>
       </c>
       <c r="B4">
-        <v>0.74019999999999997</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="C4">
-        <v>0.75644999999999996</v>
+        <v>0.72604999999999997</v>
       </c>
       <c r="D4">
-        <v>0.74550000000000005</v>
+        <v>0.76014999999999999</v>
       </c>
       <c r="E4">
-        <v>0.77085000000000004</v>
+        <v>0.72850000000000004</v>
       </c>
       <c r="F4">
-        <v>0.72875000000000001</v>
+        <v>0.74355000000000004</v>
       </c>
       <c r="G4">
-        <v>0.74255000000000004</v>
+        <v>0.74514999999999998</v>
       </c>
       <c r="H4">
-        <v>0.76070000000000004</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="I4">
-        <v>0.77190000000000003</v>
+        <v>0.72970000000000002</v>
       </c>
       <c r="J4">
-        <v>0.78405000000000002</v>
+        <v>0.76170000000000004</v>
       </c>
       <c r="K4">
-        <v>0.75980000000000003</v>
+        <v>0.77429999999999999</v>
       </c>
       <c r="L4">
-        <v>0.75675000000000003</v>
+        <v>0.75070000000000003</v>
       </c>
       <c r="M4">
-        <v>0.75455000000000005</v>
+        <v>0.73280000000000001</v>
       </c>
       <c r="N4">
-        <v>0.73480000000000001</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="O4">
-        <v>0.79320000000000002</v>
+        <v>0.77364999999999995</v>
       </c>
       <c r="P4">
-        <v>0.73614999999999997</v>
+        <v>0.78359999999999996</v>
       </c>
       <c r="Q4">
-        <v>0.76785000000000003</v>
+        <v>0.75224999999999997</v>
       </c>
       <c r="R4">
-        <v>0.73875000000000002</v>
+        <v>0.77195000000000003</v>
       </c>
       <c r="S4">
-        <v>0.76795000000000002</v>
+        <v>0.73724999999999996</v>
       </c>
       <c r="T4">
-        <v>0.76419999999999999</v>
+        <v>0.73245000000000005</v>
       </c>
       <c r="U4">
-        <v>0.77990000000000004</v>
+        <v>0.78685000000000005</v>
       </c>
       <c r="V4">
-        <v>0.74424999999999997</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="W4">
-        <v>0.73750000000000004</v>
+        <v>0.76429999999999998</v>
       </c>
       <c r="X4">
-        <v>0.76165000000000005</v>
+        <v>0.75405</v>
       </c>
       <c r="Y4">
-        <v>0.73385</v>
+        <v>0.73834999999999995</v>
       </c>
       <c r="Z4">
-        <v>0.7681</v>
+        <v>0.75305</v>
       </c>
       <c r="AA4">
-        <v>0.74485000000000001</v>
+        <v>0.73534999999999995</v>
       </c>
       <c r="AB4">
-        <v>0.74824999999999997</v>
+        <v>0.78034999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.74490000000000001</v>
+        <v>0.77254999999999996</v>
       </c>
       <c r="AD4">
-        <v>0.70730000000000004</v>
+        <v>0.75205</v>
       </c>
       <c r="AE4">
-        <v>0.73509999999999998</v>
+        <v>0.7369</v>
       </c>
       <c r="AF4">
-        <v>0.74744999999999995</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.7339</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="AH4">
-        <v>0.79200000000000004</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="AI4">
-        <v>0.74750000000000005</v>
+        <v>0.75834999999999997</v>
       </c>
       <c r="AJ4">
-        <v>0.76615</v>
+        <v>0.73</v>
       </c>
       <c r="AK4">
-        <v>0.73855000000000004</v>
+        <v>0.74365000000000003</v>
       </c>
       <c r="AL4">
-        <v>0.74539999999999995</v>
+        <v>0.74985000000000002</v>
       </c>
       <c r="AM4">
-        <v>0.78490000000000004</v>
+        <v>0.79190000000000005</v>
       </c>
       <c r="AN4">
-        <v>0.75944999999999996</v>
+        <v>0.75754999999999995</v>
       </c>
       <c r="AO4">
-        <v>0.77239999999999998</v>
+        <v>0.76124999999999998</v>
       </c>
       <c r="AP4">
-        <v>0.75395000000000001</v>
+        <v>0.73945000000000005</v>
       </c>
       <c r="AQ4">
-        <v>0.76290000000000002</v>
+        <v>0.77649999999999997</v>
       </c>
       <c r="AR4">
-        <v>0.74560000000000004</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="AS4">
-        <v>0.76429999999999998</v>
+        <v>0.75654999999999994</v>
       </c>
       <c r="AT4">
-        <v>0.74880000000000002</v>
+        <v>0.72950000000000004</v>
       </c>
       <c r="AU4">
-        <v>0.77759999999999996</v>
+        <v>0.77054999999999996</v>
       </c>
       <c r="AV4">
-        <v>0.77254999999999996</v>
+        <v>0.76954999999999996</v>
       </c>
       <c r="AW4">
-        <v>0.76019999999999999</v>
+        <v>0.72094999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.74995000000000001</v>
+        <v>0.73904999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.74650000000000005</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="B5">
-        <v>0.70269999999999999</v>
+        <v>0.69564999999999999</v>
       </c>
       <c r="C5">
-        <v>0.74609999999999999</v>
+        <v>0.69910000000000005</v>
       </c>
       <c r="D5">
-        <v>0.73465000000000003</v>
+        <v>0.73514999999999997</v>
       </c>
       <c r="E5">
-        <v>0.76500000000000001</v>
+        <v>0.71825000000000006</v>
       </c>
       <c r="F5">
-        <v>0.70720000000000005</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="G5">
-        <v>0.69450000000000001</v>
+        <v>0.72814999999999996</v>
       </c>
       <c r="H5">
-        <v>0.73355000000000004</v>
+        <v>0.75260000000000005</v>
       </c>
       <c r="I5">
-        <v>0.73875000000000002</v>
+        <v>0.71265000000000001</v>
       </c>
       <c r="J5">
-        <v>0.75439999999999996</v>
+        <v>0.72114999999999996</v>
       </c>
       <c r="K5">
-        <v>0.73219999999999996</v>
+        <v>0.72445000000000004</v>
       </c>
       <c r="L5">
-        <v>0.72130000000000005</v>
+        <v>0.72645000000000004</v>
       </c>
       <c r="M5">
-        <v>0.73545000000000005</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="N5">
-        <v>0.71714999999999995</v>
+        <v>0.72024999999999995</v>
       </c>
       <c r="O5">
-        <v>0.75424999999999998</v>
+        <v>0.73904999999999998</v>
       </c>
       <c r="P5">
-        <v>0.72130000000000005</v>
+        <v>0.74795</v>
       </c>
       <c r="Q5">
-        <v>0.72504999999999997</v>
+        <v>0.72355000000000003</v>
       </c>
       <c r="R5">
-        <v>0.71904999999999997</v>
+        <v>0.74204999999999999</v>
       </c>
       <c r="S5">
-        <v>0.75165000000000004</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="T5">
-        <v>0.71274999999999999</v>
+        <v>0.71694999999999998</v>
       </c>
       <c r="U5">
-        <v>0.74614999999999998</v>
+        <v>0.7601</v>
       </c>
       <c r="V5">
-        <v>0.70335000000000003</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="W5">
-        <v>0.71240000000000003</v>
+        <v>0.73809999999999998</v>
       </c>
       <c r="X5">
-        <v>0.74404999999999999</v>
+        <v>0.72804999999999997</v>
       </c>
       <c r="Y5">
-        <v>0.71009999999999995</v>
+        <v>0.70384999999999998</v>
       </c>
       <c r="Z5">
-        <v>0.73065000000000002</v>
+        <v>0.73785000000000001</v>
       </c>
       <c r="AA5">
-        <v>0.70279999999999998</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="AB5">
-        <v>0.71060000000000001</v>
+        <v>0.74704999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.71050000000000002</v>
+        <v>0.75205</v>
       </c>
       <c r="AD5">
-        <v>0.68559999999999999</v>
+        <v>0.70015000000000005</v>
       </c>
       <c r="AE5">
-        <v>0.71575</v>
+        <v>0.73114999999999997</v>
       </c>
       <c r="AF5">
-        <v>0.71950000000000003</v>
+        <v>0.71194999999999997</v>
       </c>
       <c r="AG5">
-        <v>0.72140000000000004</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="AH5">
-        <v>0.77070000000000005</v>
+        <v>0.70935000000000004</v>
       </c>
       <c r="AI5">
-        <v>0.73780000000000001</v>
+        <v>0.72619999999999996</v>
       </c>
       <c r="AJ5">
-        <v>0.72689999999999999</v>
+        <v>0.71035000000000004</v>
       </c>
       <c r="AK5">
-        <v>0.71960000000000002</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="AL5">
-        <v>0.71489999999999998</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="AM5">
-        <v>0.74665000000000004</v>
+        <v>0.75885000000000002</v>
       </c>
       <c r="AN5">
-        <v>0.73470000000000002</v>
+        <v>0.72694999999999999</v>
       </c>
       <c r="AO5">
-        <v>0.75044999999999995</v>
+        <v>0.73309999999999997</v>
       </c>
       <c r="AP5">
-        <v>0.74345000000000006</v>
+        <v>0.73124999999999996</v>
       </c>
       <c r="AQ5">
-        <v>0.74570000000000003</v>
+        <v>0.74275000000000002</v>
       </c>
       <c r="AR5">
-        <v>0.73604999999999998</v>
+        <v>0.71235000000000004</v>
       </c>
       <c r="AS5">
-        <v>0.74224999999999997</v>
+        <v>0.72835000000000005</v>
       </c>
       <c r="AT5">
-        <v>0.72760000000000002</v>
+        <v>0.70394999999999996</v>
       </c>
       <c r="AU5">
-        <v>0.75854999999999995</v>
+        <v>0.74165000000000003</v>
       </c>
       <c r="AV5">
-        <v>0.74324999999999997</v>
+        <v>0.74804999999999999</v>
       </c>
       <c r="AW5">
-        <v>0.7147</v>
+        <v>0.71214999999999995</v>
       </c>
       <c r="AX5">
-        <v>0.72775000000000001</v>
+        <v>0.72970000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.72529999999999994</v>
+        <v>0.66764999999999997</v>
       </c>
       <c r="B6">
-        <v>0.71199999999999997</v>
+        <v>0.67725000000000002</v>
       </c>
       <c r="C6">
-        <v>0.72899999999999998</v>
+        <v>0.67390000000000005</v>
       </c>
       <c r="D6">
-        <v>0.69825000000000004</v>
+        <v>0.70484999999999998</v>
       </c>
       <c r="E6">
-        <v>0.73080000000000001</v>
+        <v>0.68149999999999999</v>
       </c>
       <c r="F6">
-        <v>0.71635000000000004</v>
+        <v>0.70740000000000003</v>
       </c>
       <c r="G6">
-        <v>0.66034999999999999</v>
+        <v>0.69215000000000004</v>
       </c>
       <c r="H6">
-        <v>0.71250000000000002</v>
+        <v>0.71675</v>
       </c>
       <c r="I6">
-        <v>0.70609999999999995</v>
+        <v>0.68354999999999999</v>
       </c>
       <c r="J6">
-        <v>0.73804999999999998</v>
+        <v>0.69335000000000002</v>
       </c>
       <c r="K6">
-        <v>0.71619999999999995</v>
+        <v>0.7137</v>
       </c>
       <c r="L6">
-        <v>0.71179999999999999</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="M6">
-        <v>0.71089999999999998</v>
+        <v>0.71055000000000001</v>
       </c>
       <c r="N6">
-        <v>0.69530000000000003</v>
+        <v>0.7107</v>
       </c>
       <c r="O6">
-        <v>0.73755000000000004</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="P6">
-        <v>0.69594999999999996</v>
+        <v>0.72019999999999995</v>
       </c>
       <c r="Q6">
-        <v>0.71784999999999999</v>
+        <v>0.70904999999999996</v>
       </c>
       <c r="R6">
-        <v>0.6946</v>
+        <v>0.70909999999999995</v>
       </c>
       <c r="S6">
-        <v>0.73324999999999996</v>
+        <v>0.69415000000000004</v>
       </c>
       <c r="T6">
+        <v>0.69694999999999996</v>
+      </c>
+      <c r="U6">
+        <v>0.72785</v>
+      </c>
+      <c r="V6">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="W6">
+        <v>0.71435000000000004</v>
+      </c>
+      <c r="X6">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="Y6">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="Z6">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="AA6">
+        <v>0.71325000000000005</v>
+      </c>
+      <c r="AB6">
+        <v>0.69105000000000005</v>
+      </c>
+      <c r="AC6">
+        <v>0.73255000000000003</v>
+      </c>
+      <c r="AD6">
+        <v>0.68684999999999996</v>
+      </c>
+      <c r="AE6">
+        <v>0.72335000000000005</v>
+      </c>
+      <c r="AF6">
+        <v>0.66335</v>
+      </c>
+      <c r="AG6">
+        <v>0.70245000000000002</v>
+      </c>
+      <c r="AH6">
+        <v>0.71355000000000002</v>
+      </c>
+      <c r="AI6">
+        <v>0.68715000000000004</v>
+      </c>
+      <c r="AJ6">
+        <v>0.68730000000000002</v>
+      </c>
+      <c r="AK6">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="AL6">
         <v>0.7097</v>
       </c>
-      <c r="U6">
-        <v>0.72384999999999999</v>
-      </c>
-      <c r="V6">
-        <v>0.68784999999999996</v>
-      </c>
-      <c r="W6">
-        <v>0.68664999999999998</v>
-      </c>
-      <c r="X6">
-        <v>0.69764999999999999</v>
-      </c>
-      <c r="Y6">
-        <v>0.67530000000000001</v>
-      </c>
-      <c r="Z6">
-        <v>0.70535000000000003</v>
-      </c>
-      <c r="AA6">
-        <v>0.6845</v>
-      </c>
-      <c r="AB6">
-        <v>0.69694999999999996</v>
-      </c>
-      <c r="AC6">
-        <v>0.68059999999999998</v>
-      </c>
-      <c r="AD6">
-        <v>0.67490000000000006</v>
-      </c>
-      <c r="AE6">
-        <v>0.6915</v>
-      </c>
-      <c r="AF6">
-        <v>0.6925</v>
-      </c>
-      <c r="AG6">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="AH6">
-        <v>0.75105</v>
-      </c>
-      <c r="AI6">
-        <v>0.71809999999999996</v>
-      </c>
-      <c r="AJ6">
-        <v>0.70104999999999995</v>
-      </c>
-      <c r="AK6">
-        <v>0.69655</v>
-      </c>
-      <c r="AL6">
-        <v>0.6925</v>
-      </c>
       <c r="AM6">
-        <v>0.72355000000000003</v>
+        <v>0.73</v>
       </c>
       <c r="AN6">
-        <v>0.70814999999999995</v>
+        <v>0.69045000000000001</v>
       </c>
       <c r="AO6">
-        <v>0.72224999999999995</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="AP6">
-        <v>0.70104999999999995</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AQ6">
-        <v>0.71445000000000003</v>
+        <v>0.70850000000000002</v>
       </c>
       <c r="AR6">
-        <v>0.69650000000000001</v>
+        <v>0.68735000000000002</v>
       </c>
       <c r="AS6">
-        <v>0.68535000000000001</v>
+        <v>0.69850000000000001</v>
       </c>
       <c r="AT6">
-        <v>0.69645000000000001</v>
+        <v>0.67754999999999999</v>
       </c>
       <c r="AU6">
-        <v>0.7117</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="AV6">
-        <v>0.72589999999999999</v>
+        <v>0.73094999999999999</v>
       </c>
       <c r="AW6">
-        <v>0.68915000000000004</v>
+        <v>0.69225000000000003</v>
       </c>
       <c r="AX6">
-        <v>0.71735000000000004</v>
+        <v>0.71135000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.69720000000000004</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="B7">
-        <v>0.67469999999999997</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="C7">
-        <v>0.69535000000000002</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="D7">
-        <v>0.69125000000000003</v>
+        <v>0.69059999999999999</v>
       </c>
       <c r="E7">
-        <v>0.70855000000000001</v>
+        <v>0.62819999999999998</v>
       </c>
       <c r="F7">
-        <v>0.69684999999999997</v>
+        <v>0.70774999999999999</v>
       </c>
       <c r="G7">
-        <v>0.65774999999999995</v>
+        <v>0.66949999999999998</v>
       </c>
       <c r="H7">
-        <v>0.68074999999999997</v>
+        <v>0.71825000000000006</v>
       </c>
       <c r="I7">
-        <v>0.67695000000000005</v>
+        <v>0.66790000000000005</v>
       </c>
       <c r="J7">
-        <v>0.70440000000000003</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="K7">
-        <v>0.68584999999999996</v>
+        <v>0.67495000000000005</v>
       </c>
       <c r="L7">
-        <v>0.69045000000000001</v>
+        <v>0.68920000000000003</v>
       </c>
       <c r="M7">
-        <v>0.70250000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="N7">
-        <v>0.70174999999999998</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="O7">
-        <v>0.71314999999999995</v>
+        <v>0.71609999999999996</v>
       </c>
       <c r="P7">
-        <v>0.69630000000000003</v>
+        <v>0.69564999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.6835</v>
+        <v>0.68789999999999996</v>
       </c>
       <c r="R7">
-        <v>0.68315000000000003</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="S7">
-        <v>0.70309999999999995</v>
+        <v>0.68205000000000005</v>
       </c>
       <c r="T7">
-        <v>0.68110000000000004</v>
+        <v>0.65639999999999998</v>
       </c>
       <c r="U7">
-        <v>0.71989999999999998</v>
+        <v>0.70704999999999996</v>
       </c>
       <c r="V7">
-        <v>0.67654999999999998</v>
+        <v>0.69389999999999996</v>
       </c>
       <c r="W7">
-        <v>0.65864999999999996</v>
+        <v>0.71165</v>
       </c>
       <c r="X7">
-        <v>0.67469999999999997</v>
+        <v>0.67925000000000002</v>
       </c>
       <c r="Y7">
-        <v>0.66990000000000005</v>
+        <v>0.65674999999999994</v>
       </c>
       <c r="Z7">
-        <v>0.68045</v>
+        <v>0.69764999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.67159999999999997</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="AB7">
-        <v>0.69205000000000005</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="AC7">
-        <v>0.66049999999999998</v>
+        <v>0.71630000000000005</v>
       </c>
       <c r="AD7">
-        <v>0.65395000000000003</v>
+        <v>0.63714999999999999</v>
       </c>
       <c r="AE7">
-        <v>0.67269999999999996</v>
+        <v>0.68794999999999995</v>
       </c>
       <c r="AF7">
-        <v>0.66354999999999997</v>
+        <v>0.64634999999999998</v>
       </c>
       <c r="AG7">
-        <v>0.67395000000000005</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="AH7">
-        <v>0.70684999999999998</v>
+        <v>0.69879999999999998</v>
       </c>
       <c r="AI7">
-        <v>0.70920000000000005</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="AJ7">
-        <v>0.68140000000000001</v>
+        <v>0.66085000000000005</v>
       </c>
       <c r="AK7">
-        <v>0.67130000000000001</v>
+        <v>0.69550000000000001</v>
       </c>
       <c r="AL7">
-        <v>0.68594999999999995</v>
+        <v>0.69430000000000003</v>
       </c>
       <c r="AM7">
-        <v>0.68959999999999999</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="AN7">
-        <v>0.67349999999999999</v>
+        <v>0.63534999999999997</v>
       </c>
       <c r="AO7">
-        <v>0.67069999999999996</v>
+        <v>0.68859999999999999</v>
       </c>
       <c r="AP7">
-        <v>0.67705000000000004</v>
+        <v>0.66025</v>
       </c>
       <c r="AQ7">
-        <v>0.68700000000000006</v>
+        <v>0.6794</v>
       </c>
       <c r="AR7">
-        <v>0.69420000000000004</v>
+        <v>0.66449999999999998</v>
       </c>
       <c r="AS7">
-        <v>0.65969999999999995</v>
+        <v>0.69274999999999998</v>
       </c>
       <c r="AT7">
-        <v>0.70079999999999998</v>
+        <v>0.66115000000000002</v>
       </c>
       <c r="AU7">
-        <v>0.67615000000000003</v>
+        <v>0.65425</v>
       </c>
       <c r="AV7">
-        <v>0.71425000000000005</v>
+        <v>0.69825000000000004</v>
       </c>
       <c r="AW7">
-        <v>0.69140000000000001</v>
+        <v>0.65764999999999996</v>
       </c>
       <c r="AX7">
-        <v>0.68269999999999997</v>
+        <v>0.6794</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.69205000000000005</v>
+        <v>0.63790000000000002</v>
       </c>
       <c r="B8">
-        <v>0.64944999999999997</v>
+        <v>0.63985000000000003</v>
       </c>
       <c r="C8">
-        <v>0.68969999999999998</v>
+        <v>0.63934999999999997</v>
       </c>
       <c r="D8">
-        <v>0.67064999999999997</v>
+        <v>0.66034999999999999</v>
       </c>
       <c r="E8">
-        <v>0.67044999999999999</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="F8">
-        <v>0.65134999999999998</v>
+        <v>0.68269999999999997</v>
       </c>
       <c r="G8">
-        <v>0.63349999999999995</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="H8">
-        <v>0.64805000000000001</v>
+        <v>0.69315000000000004</v>
       </c>
       <c r="I8">
-        <v>0.65695000000000003</v>
+        <v>0.65169999999999995</v>
       </c>
       <c r="J8">
-        <v>0.67395000000000005</v>
+        <v>0.64585000000000004</v>
       </c>
       <c r="K8">
-        <v>0.68005000000000004</v>
+        <v>0.66869999999999996</v>
       </c>
       <c r="L8">
-        <v>0.66854999999999998</v>
+        <v>0.67535000000000001</v>
       </c>
       <c r="M8">
-        <v>0.66549999999999998</v>
+        <v>0.65415000000000001</v>
       </c>
       <c r="N8">
-        <v>0.69599999999999995</v>
+        <v>0.68</v>
       </c>
       <c r="O8">
-        <v>0.68440000000000001</v>
+        <v>0.68740000000000001</v>
       </c>
       <c r="P8">
-        <v>0.66925000000000001</v>
+        <v>0.66064999999999996</v>
       </c>
       <c r="Q8">
-        <v>0.67569999999999997</v>
+        <v>0.67325000000000002</v>
       </c>
       <c r="R8">
-        <v>0.66990000000000005</v>
+        <v>0.66515000000000002</v>
       </c>
       <c r="S8">
-        <v>0.67764999999999997</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="T8">
-        <v>0.66925000000000001</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="U8">
-        <v>0.68564999999999998</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="V8">
-        <v>0.67800000000000005</v>
+        <v>0.67279999999999995</v>
       </c>
       <c r="W8">
-        <v>0.65225</v>
+        <v>0.68715000000000004</v>
       </c>
       <c r="X8">
-        <v>0.65525</v>
+        <v>0.6593</v>
       </c>
       <c r="Y8">
-        <v>0.6573</v>
+        <v>0.63154999999999994</v>
       </c>
       <c r="Z8">
-        <v>0.66310000000000002</v>
+        <v>0.67215000000000003</v>
       </c>
       <c r="AA8">
-        <v>0.65080000000000005</v>
+        <v>0.67710000000000004</v>
       </c>
       <c r="AB8">
+        <v>0.63865000000000005</v>
+      </c>
+      <c r="AC8">
+        <v>0.68735000000000002</v>
+      </c>
+      <c r="AD8">
+        <v>0.62065000000000003</v>
+      </c>
+      <c r="AE8">
+        <v>0.67354999999999998</v>
+      </c>
+      <c r="AF8">
+        <v>0.62275000000000003</v>
+      </c>
+      <c r="AG8">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="AH8">
+        <v>0.68205000000000005</v>
+      </c>
+      <c r="AI8">
+        <v>0.68374999999999997</v>
+      </c>
+      <c r="AJ8">
+        <v>0.63924999999999998</v>
+      </c>
+      <c r="AK8">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="AL8">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="AM8">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="AN8">
+        <v>0.64595000000000002</v>
+      </c>
+      <c r="AO8">
         <v>0.68694999999999995</v>
       </c>
-      <c r="AC8">
-        <v>0.67044999999999999</v>
-      </c>
-      <c r="AD8">
-        <v>0.64734999999999998</v>
-      </c>
-      <c r="AE8">
-        <v>0.66564999999999996</v>
-      </c>
-      <c r="AF8">
-        <v>0.63275000000000003</v>
-      </c>
-      <c r="AG8">
-        <v>0.65634999999999999</v>
-      </c>
-      <c r="AH8">
-        <v>0.68440000000000001</v>
-      </c>
-      <c r="AI8">
-        <v>0.69810000000000005</v>
-      </c>
-      <c r="AJ8">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="AK8">
-        <v>0.65725</v>
-      </c>
-      <c r="AL8">
-        <v>0.67874999999999996</v>
-      </c>
-      <c r="AM8">
-        <v>0.67190000000000005</v>
-      </c>
-      <c r="AN8">
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="AO8">
-        <v>0.65925</v>
-      </c>
       <c r="AP8">
-        <v>0.65185000000000004</v>
+        <v>0.65944999999999998</v>
       </c>
       <c r="AQ8">
-        <v>0.68645</v>
+        <v>0.68045</v>
       </c>
       <c r="AR8">
-        <v>0.67330000000000001</v>
+        <v>0.64915</v>
       </c>
       <c r="AS8">
-        <v>0.66339999999999999</v>
+        <v>0.65685000000000004</v>
       </c>
       <c r="AT8">
-        <v>0.69499999999999995</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="AU8">
-        <v>0.65024999999999999</v>
+        <v>0.62895000000000001</v>
       </c>
       <c r="AV8">
-        <v>0.71930000000000005</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="AW8">
-        <v>0.65229999999999999</v>
+        <v>0.65790000000000004</v>
       </c>
       <c r="AX8">
-        <v>0.66520000000000001</v>
+        <v>0.68369999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.67674999999999996</v>
+        <v>0.62334999999999996</v>
       </c>
       <c r="B9">
-        <v>0.62675000000000003</v>
+        <v>0.63170000000000004</v>
       </c>
       <c r="C9">
-        <v>0.66515000000000002</v>
+        <v>0.63805000000000001</v>
       </c>
       <c r="D9">
-        <v>0.63234999999999997</v>
+        <v>0.65380000000000005</v>
       </c>
       <c r="E9">
-        <v>0.64610000000000001</v>
+        <v>0.60470000000000002</v>
       </c>
       <c r="F9">
-        <v>0.64864999999999995</v>
+        <v>0.66620000000000001</v>
       </c>
       <c r="G9">
-        <v>0.62490000000000001</v>
+        <v>0.64359999999999995</v>
       </c>
       <c r="H9">
-        <v>0.63585000000000003</v>
+        <v>0.66605000000000003</v>
       </c>
       <c r="I9">
-        <v>0.64370000000000005</v>
+        <v>0.622</v>
       </c>
       <c r="J9">
-        <v>0.67420000000000002</v>
+        <v>0.64144999999999996</v>
       </c>
       <c r="K9">
-        <v>0.65139999999999998</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="L9">
-        <v>0.65874999999999995</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="M9">
-        <v>0.65180000000000005</v>
+        <v>0.64575000000000005</v>
       </c>
       <c r="N9">
-        <v>0.68240000000000001</v>
+        <v>0.67995000000000005</v>
       </c>
       <c r="O9">
-        <v>0.65149999999999997</v>
+        <v>0.68289999999999995</v>
       </c>
       <c r="P9">
-        <v>0.64319999999999999</v>
+        <v>0.6734</v>
       </c>
       <c r="Q9">
-        <v>0.67125000000000001</v>
+        <v>0.65134999999999998</v>
       </c>
       <c r="R9">
-        <v>0.65159999999999996</v>
+        <v>0.65885000000000005</v>
       </c>
       <c r="S9">
-        <v>0.66654999999999998</v>
+        <v>0.65259999999999996</v>
       </c>
       <c r="T9">
-        <v>0.66649999999999998</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="U9">
-        <v>0.69025000000000003</v>
+        <v>0.65554999999999997</v>
       </c>
       <c r="V9">
-        <v>0.66979999999999995</v>
+        <v>0.6603</v>
       </c>
       <c r="W9">
-        <v>0.61765000000000003</v>
+        <v>0.68279999999999996</v>
       </c>
       <c r="X9">
-        <v>0.64370000000000005</v>
+        <v>0.62285000000000001</v>
       </c>
       <c r="Y9">
-        <v>0.63585000000000003</v>
+        <v>0.62905</v>
       </c>
       <c r="Z9">
-        <v>0.67390000000000005</v>
+        <v>0.66620000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.65715000000000001</v>
+        <v>0.66615000000000002</v>
       </c>
       <c r="AB9">
-        <v>0.68674999999999997</v>
+        <v>0.62890000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.67630000000000001</v>
+        <v>0.67144999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.6542</v>
+        <v>0.60755000000000003</v>
       </c>
       <c r="AE9">
-        <v>0.65390000000000004</v>
+        <v>0.67820000000000003</v>
       </c>
       <c r="AF9">
-        <v>0.64854999999999996</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="AG9">
-        <v>0.65339999999999998</v>
+        <v>0.65115000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.6643</v>
+        <v>0.66969999999999996</v>
       </c>
       <c r="AI9">
-        <v>0.69259999999999999</v>
+        <v>0.65964999999999996</v>
       </c>
       <c r="AJ9">
-        <v>0.66354999999999997</v>
+        <v>0.63649999999999995</v>
       </c>
       <c r="AK9">
-        <v>0.66790000000000005</v>
+        <v>0.64790000000000003</v>
       </c>
       <c r="AL9">
-        <v>0.65490000000000004</v>
+        <v>0.63785000000000003</v>
       </c>
       <c r="AM9">
-        <v>0.67989999999999995</v>
+        <v>0.66890000000000005</v>
       </c>
       <c r="AN9">
-        <v>0.65905000000000002</v>
+        <v>0.6522</v>
       </c>
       <c r="AO9">
-        <v>0.63495000000000001</v>
+        <v>0.66244999999999998</v>
       </c>
       <c r="AP9">
-        <v>0.66354999999999997</v>
+        <v>0.65925</v>
       </c>
       <c r="AQ9">
-        <v>0.67035</v>
+        <v>0.66674999999999995</v>
       </c>
       <c r="AR9">
-        <v>0.65974999999999995</v>
+        <v>0.62265000000000004</v>
       </c>
       <c r="AS9">
-        <v>0.63329999999999997</v>
+        <v>0.66169999999999995</v>
       </c>
       <c r="AT9">
-        <v>0.68645</v>
+        <v>0.65439999999999998</v>
       </c>
       <c r="AU9">
-        <v>0.62880000000000003</v>
+        <v>0.58445000000000003</v>
       </c>
       <c r="AV9">
-        <v>0.69045000000000001</v>
+        <v>0.66134999999999999</v>
       </c>
       <c r="AW9">
-        <v>0.63924999999999998</v>
+        <v>0.64490000000000003</v>
       </c>
       <c r="AX9">
-        <v>0.66020000000000001</v>
+        <v>0.65934999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.65649999999999997</v>
+        <v>0.628</v>
       </c>
       <c r="B10">
-        <v>0.62270000000000003</v>
+        <v>0.62944999999999995</v>
       </c>
       <c r="C10">
-        <v>0.64834999999999998</v>
+        <v>0.62185000000000001</v>
       </c>
       <c r="D10">
-        <v>0.62365000000000004</v>
+        <v>0.63915</v>
       </c>
       <c r="E10">
-        <v>0.64429999999999998</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="F10">
-        <v>0.63680000000000003</v>
+        <v>0.67130000000000001</v>
       </c>
       <c r="G10">
-        <v>0.61380000000000001</v>
+        <v>0.63134999999999997</v>
       </c>
       <c r="H10">
+        <v>0.65869999999999995</v>
+      </c>
+      <c r="I10">
+        <v>0.60424999999999995</v>
+      </c>
+      <c r="J10">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.61924999999999997</v>
+      </c>
+      <c r="L10">
+        <v>0.64434999999999998</v>
+      </c>
+      <c r="M10">
         <v>0.63434999999999997</v>
       </c>
-      <c r="I10">
-        <v>0.65695000000000003</v>
-      </c>
-      <c r="J10">
-        <v>0.66095000000000004</v>
-      </c>
-      <c r="K10">
-        <v>0.65290000000000004</v>
-      </c>
-      <c r="L10">
-        <v>0.6391</v>
-      </c>
-      <c r="M10">
-        <v>0.62765000000000004</v>
-      </c>
       <c r="N10">
-        <v>0.66595000000000004</v>
+        <v>0.66710000000000003</v>
       </c>
       <c r="O10">
-        <v>0.64249999999999996</v>
+        <v>0.68384999999999996</v>
       </c>
       <c r="P10">
-        <v>0.65405000000000002</v>
+        <v>0.66049999999999998</v>
       </c>
       <c r="Q10">
-        <v>0.65044999999999997</v>
+        <v>0.64480000000000004</v>
       </c>
       <c r="R10">
-        <v>0.62524999999999997</v>
+        <v>0.65359999999999996</v>
       </c>
       <c r="S10">
-        <v>0.67059999999999997</v>
+        <v>0.63305</v>
       </c>
       <c r="T10">
-        <v>0.66895000000000004</v>
+        <v>0.63759999999999994</v>
       </c>
       <c r="U10">
-        <v>0.69640000000000002</v>
+        <v>0.6613</v>
       </c>
       <c r="V10">
-        <v>0.63654999999999995</v>
+        <v>0.62795000000000001</v>
       </c>
       <c r="W10">
-        <v>0.61129999999999995</v>
+        <v>0.66735</v>
       </c>
       <c r="X10">
-        <v>0.62575000000000003</v>
+        <v>0.60845000000000005</v>
       </c>
       <c r="Y10">
-        <v>0.64680000000000004</v>
+        <v>0.59609999999999996</v>
       </c>
       <c r="Z10">
-        <v>0.66274999999999995</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="AA10">
-        <v>0.65144999999999997</v>
+        <v>0.66110000000000002</v>
       </c>
       <c r="AB10">
-        <v>0.6643</v>
+        <v>0.61845000000000006</v>
       </c>
       <c r="AC10">
-        <v>0.67874999999999996</v>
+        <v>0.65039999999999998</v>
       </c>
       <c r="AD10">
-        <v>0.64124999999999999</v>
+        <v>0.58220000000000005</v>
       </c>
       <c r="AE10">
-        <v>0.64724999999999999</v>
+        <v>0.64585000000000004</v>
       </c>
       <c r="AF10">
-        <v>0.65510000000000002</v>
+        <v>0.61209999999999998</v>
       </c>
       <c r="AG10">
-        <v>0.64134999999999998</v>
+        <v>0.64454999999999996</v>
       </c>
       <c r="AH10">
-        <v>0.65164999999999995</v>
+        <v>0.64644999999999997</v>
       </c>
       <c r="AI10">
-        <v>0.67320000000000002</v>
+        <v>0.66490000000000005</v>
       </c>
       <c r="AJ10">
-        <v>0.65564999999999996</v>
+        <v>0.63544999999999996</v>
       </c>
       <c r="AK10">
-        <v>0.65210000000000001</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="AL10">
-        <v>0.63605</v>
+        <v>0.61819999999999997</v>
       </c>
       <c r="AM10">
-        <v>0.65315000000000001</v>
+        <v>0.64810000000000001</v>
       </c>
       <c r="AN10">
-        <v>0.64324999999999999</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="AO10">
-        <v>0.61939999999999995</v>
+        <v>0.62919999999999998</v>
       </c>
       <c r="AP10">
-        <v>0.6512</v>
+        <v>0.65295000000000003</v>
       </c>
       <c r="AQ10">
-        <v>0.66510000000000002</v>
+        <v>0.65774999999999995</v>
       </c>
       <c r="AR10">
-        <v>0.64149999999999996</v>
+        <v>0.61804999999999999</v>
       </c>
       <c r="AS10">
-        <v>0.64575000000000005</v>
+        <v>0.64270000000000005</v>
       </c>
       <c r="AT10">
-        <v>0.66339999999999999</v>
+        <v>0.64410000000000001</v>
       </c>
       <c r="AU10">
-        <v>0.62624999999999997</v>
+        <v>0.56725000000000003</v>
       </c>
       <c r="AV10">
-        <v>0.68899999999999995</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="AW10">
-        <v>0.60965000000000003</v>
+        <v>0.63824999999999998</v>
       </c>
       <c r="AX10">
-        <v>0.65974999999999995</v>
+        <v>0.66535</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.65985000000000005</v>
+        <v>0.60609999999999997</v>
       </c>
       <c r="B11">
-        <v>0.61975000000000002</v>
+        <v>0.60794999999999999</v>
       </c>
       <c r="C11">
-        <v>0.62680000000000002</v>
+        <v>0.6048</v>
       </c>
       <c r="D11">
-        <v>0.61895</v>
+        <v>0.64615</v>
       </c>
       <c r="E11">
-        <v>0.63144999999999996</v>
+        <v>0.5837</v>
       </c>
       <c r="F11">
-        <v>0.60760000000000003</v>
+        <v>0.65974999999999995</v>
       </c>
       <c r="G11">
-        <v>0.58579999999999999</v>
+        <v>0.62490000000000001</v>
       </c>
       <c r="H11">
-        <v>0.64249999999999996</v>
+        <v>0.64075000000000004</v>
       </c>
       <c r="I11">
-        <v>0.64954999999999996</v>
+        <v>0.61094999999999999</v>
       </c>
       <c r="J11">
-        <v>0.62544999999999995</v>
+        <v>0.62575000000000003</v>
       </c>
       <c r="K11">
-        <v>0.64119999999999999</v>
+        <v>0.61514999999999997</v>
       </c>
       <c r="L11">
-        <v>0.64124999999999999</v>
+        <v>0.62934999999999997</v>
       </c>
       <c r="M11">
-        <v>0.63375000000000004</v>
+        <v>0.63205</v>
       </c>
       <c r="N11">
-        <v>0.66364999999999996</v>
+        <v>0.67490000000000006</v>
       </c>
       <c r="O11">
-        <v>0.64385000000000003</v>
+        <v>0.67330000000000001</v>
       </c>
       <c r="P11">
-        <v>0.63505</v>
+        <v>0.64485000000000003</v>
       </c>
       <c r="Q11">
-        <v>0.65149999999999997</v>
+        <v>0.62195</v>
       </c>
       <c r="R11">
-        <v>0.63414999999999999</v>
+        <v>0.66444999999999999</v>
       </c>
       <c r="S11">
-        <v>0.64154999999999995</v>
+        <v>0.624</v>
       </c>
       <c r="T11">
-        <v>0.62765000000000004</v>
+        <v>0.62834999999999996</v>
       </c>
       <c r="U11">
-        <v>0.66500000000000004</v>
+        <v>0.62919999999999998</v>
       </c>
       <c r="V11">
-        <v>0.62880000000000003</v>
+        <v>0.60919999999999996</v>
       </c>
       <c r="W11">
-        <v>0.59565000000000001</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="X11">
-        <v>0.61170000000000002</v>
+        <v>0.61129999999999995</v>
       </c>
       <c r="Y11">
-        <v>0.64259999999999995</v>
+        <v>0.60634999999999994</v>
       </c>
       <c r="Z11">
-        <v>0.64475000000000005</v>
+        <v>0.63529999999999998</v>
       </c>
       <c r="AA11">
-        <v>0.63590000000000002</v>
+        <v>0.65905000000000002</v>
       </c>
       <c r="AB11">
-        <v>0.66849999999999998</v>
+        <v>0.59989999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.65925</v>
+        <v>0.62785000000000002</v>
       </c>
       <c r="AD11">
-        <v>0.62214999999999998</v>
+        <v>0.57369999999999999</v>
       </c>
       <c r="AE11">
-        <v>0.64585000000000004</v>
+        <v>0.65905000000000002</v>
       </c>
       <c r="AF11">
-        <v>0.65200000000000002</v>
+        <v>0.60404999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.64885000000000004</v>
+        <v>0.62375000000000003</v>
       </c>
       <c r="AH11">
-        <v>0.62849999999999995</v>
+        <v>0.63815</v>
       </c>
       <c r="AI11">
-        <v>0.65659999999999996</v>
+        <v>0.6472</v>
       </c>
       <c r="AJ11">
-        <v>0.65974999999999995</v>
+        <v>0.62685000000000002</v>
       </c>
       <c r="AK11">
-        <v>0.64015</v>
+        <v>0.66325000000000001</v>
       </c>
       <c r="AL11">
-        <v>0.62265000000000004</v>
+        <v>0.60640000000000005</v>
       </c>
       <c r="AM11">
-        <v>0.6331</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="AN11">
-        <v>0.61970000000000003</v>
+        <v>0.63295000000000001</v>
       </c>
       <c r="AO11">
-        <v>0.60865000000000002</v>
+        <v>0.63095000000000001</v>
       </c>
       <c r="AP11">
-        <v>0.63055000000000005</v>
+        <v>0.62614999999999998</v>
       </c>
       <c r="AQ11">
-        <v>0.65064999999999995</v>
+        <v>0.64959999999999996</v>
       </c>
       <c r="AR11">
-        <v>0.63344999999999996</v>
+        <v>0.62865000000000004</v>
       </c>
       <c r="AS11">
-        <v>0.63265000000000005</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="AT11">
-        <v>0.66720000000000002</v>
+        <v>0.63334999999999997</v>
       </c>
       <c r="AU11">
-        <v>0.63454999999999995</v>
+        <v>0.55894999999999995</v>
       </c>
       <c r="AV11">
-        <v>0.70215000000000005</v>
+        <v>0.63754999999999995</v>
       </c>
       <c r="AW11">
-        <v>0.60194999999999999</v>
+        <v>0.63875000000000004</v>
       </c>
       <c r="AX11">
-        <v>0.67354999999999998</v>
+        <v>0.66290000000000004</v>
       </c>
     </row>
   </sheetData>
